--- a/WT Survey Data/Growth.xlsx
+++ b/WT Survey Data/Growth.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bryan/Dropbox/GitHub/spring-2018-final-projects-bretbryan-wt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bryan/Dropbox/GitHub/spring-2018-final-projects-bretbryan-wt/WT Survey Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01115C6B-84F8-C14A-A613-9F4EC83C1865}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534FE8C-8A56-1243-BE3C-C7C0FC490C29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15540" activeTab="1" xr2:uid="{C15697BF-B16F-CE46-95AC-48F9FEB14A42}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15500" xr2:uid="{C15697BF-B16F-CE46-95AC-48F9FEB14A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,7 +160,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -186,195 +186,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -690,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C763C3-CA50-F64E-A589-C5A45DFFF143}">
   <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10606,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:W167" si="9">COUNTIF(C$1:C$160,$A163)</f>
+        <f t="shared" ref="C163:W166" si="9">COUNTIF(C$1:C$160,$A163)</f>
         <v>0</v>
       </c>
       <c r="D163">
@@ -10691,7 +10502,7 @@
         <v>9</v>
       </c>
       <c r="B164">
-        <f t="shared" ref="B164:Q167" si="10">COUNTIF(B$1:B$160,$A164)</f>
+        <f t="shared" ref="B164:O166" si="10">COUNTIF(B$1:B$160,$A164)</f>
         <v>2</v>
       </c>
       <c r="C164">
@@ -11246,7 +11057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C168D860-02CD-084E-8945-B736585EDDD8}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -11360,7 +11171,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:F5" si="0">C3/SUM(C$2:C$5)</f>
+        <f t="shared" ref="D3:D5" si="0">C3/SUM(C$2:C$5)</f>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="E3">
